--- a/realgdp.xlsx
+++ b/realgdp.xlsx
@@ -1,26 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gealy\OneDrive\Documents\git\baysmacro\baysmacro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8677C97D-36C1-4CB4-BB4D-26D86016B6E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17F45495-C41A-4EA9-9239-341C013BC683}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="825" yWindow="-120" windowWidth="28095" windowHeight="16440"/>
+    <workbookView xWindow="825" yWindow="-120" windowWidth="28095" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FRED Graph" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="114210"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
@@ -33,19 +35,18 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>GDPC1</t>
+    <t>observation_date</t>
   </si>
   <si>
-    <t>observation_date</t>
+    <t>real gdp</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
-    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -73,10 +74,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -390,2488 +390,2488 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B309"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:IV2"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="256" width="20.7109375" customWidth="1"/>
+    <col min="1" max="254" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>17168</v>
       </c>
-      <c r="B2" s="2">
-        <v>2182.681</v>
+      <c r="B2">
+        <v>2182681000000</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>17258</v>
       </c>
-      <c r="B3" s="2">
-        <v>2176.8919999999998</v>
+      <c r="B3">
+        <v>2176891999999.9998</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>17349</v>
       </c>
-      <c r="B4" s="2">
-        <v>2172.4319999999998</v>
+      <c r="B4">
+        <v>2172431999999.9998</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>17441</v>
       </c>
-      <c r="B5" s="2">
-        <v>2206.4520000000002</v>
+      <c r="B5">
+        <v>2206452000000</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>17533</v>
       </c>
-      <c r="B6" s="2">
-        <v>2239.6819999999998</v>
+      <c r="B6">
+        <v>2239682000000</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>17624</v>
       </c>
-      <c r="B7" s="2">
-        <v>2276.69</v>
+      <c r="B7">
+        <v>2276690000000</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>17715</v>
       </c>
-      <c r="B8" s="2">
-        <v>2289.77</v>
+      <c r="B8">
+        <v>2289770000000</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>17807</v>
       </c>
-      <c r="B9" s="2">
-        <v>2292.364</v>
+      <c r="B9">
+        <v>2292364000000</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>17899</v>
       </c>
-      <c r="B10" s="2">
-        <v>2260.8069999999998</v>
+      <c r="B10">
+        <v>2260807000000</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>17989</v>
       </c>
-      <c r="B11" s="2">
-        <v>2253.1280000000002</v>
+      <c r="B11">
+        <v>2253128000000</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>18080</v>
       </c>
-      <c r="B12" s="2">
-        <v>2276.424</v>
+      <c r="B12">
+        <v>2276424000000</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>18172</v>
       </c>
-      <c r="B13" s="2">
-        <v>2257.3519999999999</v>
+      <c r="B13">
+        <v>2257352000000</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>18264</v>
       </c>
-      <c r="B14" s="2">
-        <v>2346.1039999999998</v>
+      <c r="B14">
+        <v>2346104000000</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>18354</v>
       </c>
-      <c r="B15" s="2">
-        <v>2417.6819999999998</v>
+      <c r="B15">
+        <v>2417682000000</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>18445</v>
       </c>
-      <c r="B16" s="2">
-        <v>2511.127</v>
+      <c r="B16">
+        <v>2511127000000</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>18537</v>
       </c>
-      <c r="B17" s="2">
-        <v>2559.2139999999999</v>
+      <c r="B17">
+        <v>2559214000000</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>18629</v>
       </c>
-      <c r="B18" s="2">
-        <v>2593.9670000000001</v>
+      <c r="B18">
+        <v>2593967000000</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>18719</v>
       </c>
-      <c r="B19" s="2">
-        <v>2638.8980000000001</v>
+      <c r="B19">
+        <v>2638898000000</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>18810</v>
       </c>
-      <c r="B20" s="2">
-        <v>2693.259</v>
+      <c r="B20">
+        <v>2693259000000</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>18902</v>
       </c>
-      <c r="B21" s="2">
-        <v>2699.1559999999999</v>
+      <c r="B21">
+        <v>2699156000000</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>18994</v>
       </c>
-      <c r="B22" s="2">
-        <v>2727.9540000000002</v>
+      <c r="B22">
+        <v>2727954000000</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>19085</v>
       </c>
-      <c r="B23" s="2">
-        <v>2733.8</v>
+      <c r="B23">
+        <v>2733800000000</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>19176</v>
       </c>
-      <c r="B24" s="2">
-        <v>2753.5169999999998</v>
+      <c r="B24">
+        <v>2753517000000</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>19268</v>
       </c>
-      <c r="B25" s="2">
-        <v>2843.9409999999998</v>
+      <c r="B25">
+        <v>2843941000000</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>19360</v>
       </c>
-      <c r="B26" s="2">
-        <v>2896.8110000000001</v>
+      <c r="B26">
+        <v>2896811000000</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>19450</v>
       </c>
-      <c r="B27" s="2">
-        <v>2919.2060000000001</v>
+      <c r="B27">
+        <v>2919206000000</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>19541</v>
       </c>
-      <c r="B28" s="2">
-        <v>2902.7849999999999</v>
+      <c r="B28">
+        <v>2902785000000</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>19633</v>
       </c>
-      <c r="B29" s="2">
-        <v>2858.8449999999998</v>
+      <c r="B29">
+        <v>2858845000000</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>19725</v>
       </c>
-      <c r="B30" s="2">
-        <v>2845.192</v>
+      <c r="B30">
+        <v>2845192000000</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>19815</v>
       </c>
-      <c r="B31" s="2">
-        <v>2848.3049999999998</v>
+      <c r="B31">
+        <v>2848305000000</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>19906</v>
       </c>
-      <c r="B32" s="2">
-        <v>2880.482</v>
+      <c r="B32">
+        <v>2880482000000</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>19998</v>
       </c>
-      <c r="B33" s="2">
-        <v>2936.8519999999999</v>
+      <c r="B33">
+        <v>2936852000000</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>20090</v>
       </c>
-      <c r="B34" s="2">
-        <v>3020.7460000000001</v>
+      <c r="B34">
+        <v>3020746000000</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>20180</v>
       </c>
-      <c r="B35" s="2">
-        <v>3069.91</v>
+      <c r="B35">
+        <v>3069910000000</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>20271</v>
       </c>
-      <c r="B36" s="2">
-        <v>3111.3789999999999</v>
+      <c r="B36">
+        <v>3111379000000</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>20363</v>
       </c>
-      <c r="B37" s="2">
-        <v>3130.0680000000002</v>
+      <c r="B37">
+        <v>3130068000000</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>20455</v>
       </c>
-      <c r="B38" s="2">
-        <v>3117.922</v>
+      <c r="B38">
+        <v>3117922000000</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>20546</v>
       </c>
-      <c r="B39" s="2">
-        <v>3143.694</v>
+      <c r="B39">
+        <v>3143694000000</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>20637</v>
       </c>
-      <c r="B40" s="2">
-        <v>3140.8739999999998</v>
+      <c r="B40">
+        <v>3140874000000</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>20729</v>
       </c>
-      <c r="B41" s="2">
-        <v>3192.57</v>
+      <c r="B41">
+        <v>3192570000000</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>20821</v>
       </c>
-      <c r="B42" s="2">
-        <v>3213.011</v>
+      <c r="B42">
+        <v>3213011000000</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>20911</v>
       </c>
-      <c r="B43" s="2">
-        <v>3205.97</v>
+      <c r="B43">
+        <v>3205970000000</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>21002</v>
       </c>
-      <c r="B44" s="2">
-        <v>3237.386</v>
+      <c r="B44">
+        <v>3237386000000</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>21094</v>
       </c>
-      <c r="B45" s="2">
-        <v>3203.8939999999998</v>
+      <c r="B45">
+        <v>3203894000000</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>21186</v>
       </c>
-      <c r="B46" s="2">
-        <v>3120.7240000000002</v>
+      <c r="B46">
+        <v>3120724000000</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>21276</v>
       </c>
-      <c r="B47" s="2">
-        <v>3141.2240000000002</v>
+      <c r="B47">
+        <v>3141224000000</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>21367</v>
       </c>
-      <c r="B48" s="2">
-        <v>3213.884</v>
+      <c r="B48">
+        <v>3213884000000</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>21459</v>
       </c>
-      <c r="B49" s="2">
-        <v>3289.0320000000002</v>
+      <c r="B49">
+        <v>3289032000000</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>21551</v>
       </c>
-      <c r="B50" s="2">
-        <v>3352.1289999999999</v>
+      <c r="B50">
+        <v>3352129000000</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>21641</v>
       </c>
-      <c r="B51" s="2">
-        <v>3427.6669999999999</v>
+      <c r="B51">
+        <v>3427667000000</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>21732</v>
       </c>
-      <c r="B52" s="2">
-        <v>3430.0569999999998</v>
+      <c r="B52">
+        <v>3430057000000</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>21824</v>
       </c>
-      <c r="B53" s="2">
-        <v>3439.8319999999999</v>
+      <c r="B53">
+        <v>3439832000000</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>21916</v>
       </c>
-      <c r="B54" s="2">
-        <v>3517.181</v>
+      <c r="B54">
+        <v>3517181000000</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>22007</v>
       </c>
-      <c r="B55" s="2">
-        <v>3498.2460000000001</v>
+      <c r="B55">
+        <v>3498246000000</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>22098</v>
       </c>
-      <c r="B56" s="2">
-        <v>3515.3850000000002</v>
+      <c r="B56">
+        <v>3515385000000</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>22190</v>
       </c>
-      <c r="B57" s="2">
-        <v>3470.2779999999998</v>
+      <c r="B57">
+        <v>3470278000000</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>22282</v>
       </c>
-      <c r="B58" s="2">
-        <v>3493.703</v>
+      <c r="B58">
+        <v>3493703000000</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>22372</v>
       </c>
-      <c r="B59" s="2">
-        <v>3553.0210000000002</v>
+      <c r="B59">
+        <v>3553021000000</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>22463</v>
       </c>
-      <c r="B60" s="2">
-        <v>3621.252</v>
+      <c r="B60">
+        <v>3621252000000</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>22555</v>
       </c>
-      <c r="B61" s="2">
-        <v>3692.2890000000002</v>
+      <c r="B61">
+        <v>3692289000000</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>22647</v>
       </c>
-      <c r="B62" s="2">
-        <v>3758.1469999999999</v>
+      <c r="B62">
+        <v>3758147000000</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>22737</v>
       </c>
-      <c r="B63" s="2">
-        <v>3792.1489999999999</v>
+      <c r="B63">
+        <v>3792149000000</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>22828</v>
       </c>
-      <c r="B64" s="2">
-        <v>3838.7759999999998</v>
+      <c r="B64">
+        <v>3838776000000</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>22920</v>
       </c>
-      <c r="B65" s="2">
-        <v>3851.4209999999998</v>
+      <c r="B65">
+        <v>3851421000000</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>23012</v>
       </c>
-      <c r="B66" s="2">
-        <v>3893.482</v>
+      <c r="B66">
+        <v>3893482000000</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>23102</v>
       </c>
-      <c r="B67" s="2">
-        <v>3937.183</v>
+      <c r="B67">
+        <v>3937183000000</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>23193</v>
       </c>
-      <c r="B68" s="2">
-        <v>4023.7550000000001</v>
+      <c r="B68">
+        <v>4023755000000</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>23285</v>
       </c>
-      <c r="B69" s="2">
-        <v>4050.1469999999999</v>
+      <c r="B69">
+        <v>4050147000000</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>23377</v>
       </c>
-      <c r="B70" s="2">
-        <v>4135.5529999999999</v>
+      <c r="B70">
+        <v>4135553000000</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>23468</v>
       </c>
-      <c r="B71" s="2">
-        <v>4180.5919999999996</v>
+      <c r="B71">
+        <v>4180591999999.9995</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>23559</v>
       </c>
-      <c r="B72" s="2">
-        <v>4245.9179999999997</v>
+      <c r="B72">
+        <v>4245917999999.9995</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>23651</v>
       </c>
-      <c r="B73" s="2">
-        <v>4259.0460000000003</v>
+      <c r="B73">
+        <v>4259046000000.0005</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>23743</v>
       </c>
-      <c r="B74" s="2">
-        <v>4362.1109999999999</v>
+      <c r="B74">
+        <v>4362111000000</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>23833</v>
       </c>
-      <c r="B75" s="2">
-        <v>4417.2250000000004</v>
+      <c r="B75">
+        <v>4417225000000</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>23924</v>
       </c>
-      <c r="B76" s="2">
-        <v>4515.4269999999997</v>
+      <c r="B76">
+        <v>4515427000000</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>24016</v>
       </c>
-      <c r="B77" s="2">
-        <v>4619.4579999999996</v>
+      <c r="B77">
+        <v>4619458000000</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>24108</v>
       </c>
-      <c r="B78" s="2">
-        <v>4731.8879999999999</v>
+      <c r="B78">
+        <v>4731888000000</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>24198</v>
       </c>
-      <c r="B79" s="2">
-        <v>4748.0460000000003</v>
+      <c r="B79">
+        <v>4748046000000</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>24289</v>
       </c>
-      <c r="B80" s="2">
-        <v>4788.2539999999999</v>
+      <c r="B80">
+        <v>4788254000000</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>24381</v>
       </c>
-      <c r="B81" s="2">
-        <v>4827.5370000000003</v>
+      <c r="B81">
+        <v>4827537000000</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>24473</v>
       </c>
-      <c r="B82" s="2">
-        <v>4870.299</v>
+      <c r="B82">
+        <v>4870299000000</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>24563</v>
       </c>
-      <c r="B83" s="2">
-        <v>4873.2870000000003</v>
+      <c r="B83">
+        <v>4873287000000</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>24654</v>
       </c>
-      <c r="B84" s="2">
-        <v>4919.3919999999998</v>
+      <c r="B84">
+        <v>4919392000000</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>24746</v>
       </c>
-      <c r="B85" s="2">
-        <v>4956.4769999999999</v>
+      <c r="B85">
+        <v>4956477000000</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>24838</v>
       </c>
-      <c r="B86" s="2">
-        <v>5057.5529999999999</v>
+      <c r="B86">
+        <v>5057553000000</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>24929</v>
       </c>
-      <c r="B87" s="2">
-        <v>5142.0330000000004</v>
+      <c r="B87">
+        <v>5142033000000</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>25020</v>
       </c>
-      <c r="B88" s="2">
-        <v>5181.8590000000004</v>
+      <c r="B88">
+        <v>5181859000000</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>25112</v>
       </c>
-      <c r="B89" s="2">
-        <v>5202.2120000000004</v>
+      <c r="B89">
+        <v>5202212000000</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>25204</v>
       </c>
-      <c r="B90" s="2">
-        <v>5283.5969999999998</v>
+      <c r="B90">
+        <v>5283597000000</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>25294</v>
       </c>
-      <c r="B91" s="2">
-        <v>5299.625</v>
+      <c r="B91">
+        <v>5299625000000</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>25385</v>
       </c>
-      <c r="B92" s="2">
-        <v>5334.6</v>
+      <c r="B92">
+        <v>5334600000000</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>25477</v>
       </c>
-      <c r="B93" s="2">
-        <v>5308.5559999999996</v>
+      <c r="B93">
+        <v>5308556000000</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>25569</v>
       </c>
-      <c r="B94" s="2">
-        <v>5300.652</v>
+      <c r="B94">
+        <v>5300652000000</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>25659</v>
       </c>
-      <c r="B95" s="2">
-        <v>5308.1639999999998</v>
+      <c r="B95">
+        <v>5308164000000</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>25750</v>
       </c>
-      <c r="B96" s="2">
-        <v>5357.0770000000002</v>
+      <c r="B96">
+        <v>5357077000000</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <v>25842</v>
       </c>
-      <c r="B97" s="2">
-        <v>5299.6719999999996</v>
+      <c r="B97">
+        <v>5299672000000</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <v>25934</v>
       </c>
-      <c r="B98" s="2">
-        <v>5443.6189999999997</v>
+      <c r="B98">
+        <v>5443619000000</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>26024</v>
       </c>
-      <c r="B99" s="2">
-        <v>5473.0590000000002</v>
+      <c r="B99">
+        <v>5473059000000</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>26115</v>
       </c>
-      <c r="B100" s="2">
-        <v>5518.0720000000001</v>
+      <c r="B100">
+        <v>5518072000000</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
         <v>26207</v>
       </c>
-      <c r="B101" s="2">
-        <v>5531.0320000000002</v>
+      <c r="B101">
+        <v>5531032000000</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
         <v>26299</v>
       </c>
-      <c r="B102" s="2">
-        <v>5632.6490000000003</v>
+      <c r="B102">
+        <v>5632649000000</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
         <v>26390</v>
       </c>
-      <c r="B103" s="2">
-        <v>5760.47</v>
+      <c r="B103">
+        <v>5760470000000</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
         <v>26481</v>
       </c>
-      <c r="B104" s="2">
-        <v>5814.8540000000003</v>
+      <c r="B104">
+        <v>5814854000000</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
         <v>26573</v>
       </c>
-      <c r="B105" s="2">
-        <v>5912.22</v>
+      <c r="B105">
+        <v>5912220000000</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
         <v>26665</v>
       </c>
-      <c r="B106" s="2">
-        <v>6058.5439999999999</v>
+      <c r="B106">
+        <v>6058544000000</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
         <v>26755</v>
       </c>
-      <c r="B107" s="2">
-        <v>6124.5060000000003</v>
+      <c r="B107">
+        <v>6124506000000</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
         <v>26846</v>
       </c>
-      <c r="B108" s="2">
-        <v>6092.3010000000004</v>
+      <c r="B108">
+        <v>6092301000000</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
         <v>26938</v>
       </c>
-      <c r="B109" s="2">
-        <v>6150.1310000000003</v>
+      <c r="B109">
+        <v>6150131000000</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
         <v>27030</v>
       </c>
-      <c r="B110" s="2">
-        <v>6097.2579999999998</v>
+      <c r="B110">
+        <v>6097258000000</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
         <v>27120</v>
       </c>
-      <c r="B111" s="2">
-        <v>6111.7510000000002</v>
+      <c r="B111">
+        <v>6111751000000</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
         <v>27211</v>
       </c>
-      <c r="B112" s="2">
-        <v>6053.9780000000001</v>
+      <c r="B112">
+        <v>6053978000000</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
         <v>27303</v>
       </c>
-      <c r="B113" s="2">
-        <v>6030.4639999999999</v>
+      <c r="B113">
+        <v>6030464000000</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
         <v>27395</v>
       </c>
-      <c r="B114" s="2">
-        <v>5957.0349999999999</v>
+      <c r="B114">
+        <v>5957035000000</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
         <v>27485</v>
       </c>
-      <c r="B115" s="2">
-        <v>5999.61</v>
+      <c r="B115">
+        <v>5999610000000</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
         <v>27576</v>
       </c>
-      <c r="B116" s="2">
-        <v>6102.326</v>
+      <c r="B116">
+        <v>6102326000000</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
         <v>27668</v>
       </c>
-      <c r="B117" s="2">
-        <v>6184.53</v>
+      <c r="B117">
+        <v>6184530000000</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
         <v>27760</v>
       </c>
-      <c r="B118" s="2">
-        <v>6323.6490000000003</v>
+      <c r="B118">
+        <v>6323649000000</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
         <v>27851</v>
       </c>
-      <c r="B119" s="2">
-        <v>6370.0249999999996</v>
+      <c r="B119">
+        <v>6370025000000</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
         <v>27942</v>
       </c>
-      <c r="B120" s="2">
-        <v>6404.8950000000004</v>
+      <c r="B120">
+        <v>6404895000000</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
         <v>28034</v>
       </c>
-      <c r="B121" s="2">
-        <v>6451.1769999999997</v>
+      <c r="B121">
+        <v>6451177000000</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
         <v>28126</v>
       </c>
-      <c r="B122" s="2">
-        <v>6527.7030000000004</v>
+      <c r="B122">
+        <v>6527703000000</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
         <v>28216</v>
       </c>
-      <c r="B123" s="2">
-        <v>6654.4660000000003</v>
+      <c r="B123">
+        <v>6654466000000</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
         <v>28307</v>
       </c>
-      <c r="B124" s="2">
-        <v>6774.4570000000003</v>
+      <c r="B124">
+        <v>6774457000000</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
         <v>28399</v>
       </c>
-      <c r="B125" s="2">
-        <v>6774.5919999999996</v>
+      <c r="B125">
+        <v>6774592000000</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
         <v>28491</v>
       </c>
-      <c r="B126" s="2">
-        <v>6796.26</v>
+      <c r="B126">
+        <v>6796260000000</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
         <v>28581</v>
       </c>
-      <c r="B127" s="2">
-        <v>7058.92</v>
+      <c r="B127">
+        <v>7058920000000</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
         <v>28672</v>
       </c>
-      <c r="B128" s="2">
-        <v>7129.915</v>
+      <c r="B128">
+        <v>7129915000000</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
         <v>28764</v>
       </c>
-      <c r="B129" s="2">
-        <v>7225.75</v>
+      <c r="B129">
+        <v>7225750000000</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
         <v>28856</v>
       </c>
-      <c r="B130" s="2">
-        <v>7238.7269999999999</v>
+      <c r="B130">
+        <v>7238727000000</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
         <v>28946</v>
       </c>
-      <c r="B131" s="2">
-        <v>7246.4539999999997</v>
+      <c r="B131">
+        <v>7246454000000</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
         <v>29037</v>
       </c>
-      <c r="B132" s="2">
-        <v>7300.2809999999999</v>
+      <c r="B132">
+        <v>7300281000000</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
         <v>29129</v>
       </c>
-      <c r="B133" s="2">
-        <v>7318.5349999999999</v>
+      <c r="B133">
+        <v>7318535000000</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
         <v>29221</v>
       </c>
-      <c r="B134" s="2">
-        <v>7341.5569999999998</v>
+      <c r="B134">
+        <v>7341557000000</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
         <v>29312</v>
       </c>
-      <c r="B135" s="2">
-        <v>7190.2889999999998</v>
+      <c r="B135">
+        <v>7190289000000</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
         <v>29403</v>
       </c>
-      <c r="B136" s="2">
-        <v>7181.7430000000004</v>
+      <c r="B136">
+        <v>7181743000000</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
         <v>29495</v>
       </c>
-      <c r="B137" s="2">
-        <v>7315.6769999999997</v>
+      <c r="B137">
+        <v>7315677000000</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
         <v>29587</v>
       </c>
-      <c r="B138" s="2">
-        <v>7459.0219999999999</v>
+      <c r="B138">
+        <v>7459022000000</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
         <v>29677</v>
       </c>
-      <c r="B139" s="2">
-        <v>7403.7449999999999</v>
+      <c r="B139">
+        <v>7403745000000</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140" s="1">
         <v>29768</v>
       </c>
-      <c r="B140" s="2">
-        <v>7492.4049999999997</v>
+      <c r="B140">
+        <v>7492405000000</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141" s="1">
         <v>29860</v>
       </c>
-      <c r="B141" s="2">
-        <v>7410.768</v>
+      <c r="B141">
+        <v>7410768000000</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142" s="1">
         <v>29952</v>
       </c>
-      <c r="B142" s="2">
-        <v>7295.6310000000003</v>
+      <c r="B142">
+        <v>7295631000000</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A143" s="1">
         <v>30042</v>
       </c>
-      <c r="B143" s="2">
-        <v>7328.9120000000003</v>
+      <c r="B143">
+        <v>7328912000000</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A144" s="1">
         <v>30133</v>
       </c>
-      <c r="B144" s="2">
-        <v>7300.8959999999997</v>
+      <c r="B144">
+        <v>7300896000000</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A145" s="1">
         <v>30225</v>
       </c>
-      <c r="B145" s="2">
-        <v>7303.817</v>
+      <c r="B145">
+        <v>7303817000000</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A146" s="1">
         <v>30317</v>
       </c>
-      <c r="B146" s="2">
-        <v>7400.0659999999998</v>
+      <c r="B146">
+        <v>7400066000000</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A147" s="1">
         <v>30407</v>
       </c>
-      <c r="B147" s="2">
-        <v>7568.4560000000001</v>
+      <c r="B147">
+        <v>7568456000000</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A148" s="1">
         <v>30498</v>
       </c>
-      <c r="B148" s="2">
-        <v>7719.7460000000001</v>
+      <c r="B148">
+        <v>7719746000000</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A149" s="1">
         <v>30590</v>
       </c>
-      <c r="B149" s="2">
-        <v>7880.7939999999999</v>
+      <c r="B149">
+        <v>7880794000000</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A150" s="1">
         <v>30682</v>
       </c>
-      <c r="B150" s="2">
-        <v>8034.8469999999998</v>
+      <c r="B150">
+        <v>8034847000000</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A151" s="1">
         <v>30773</v>
       </c>
-      <c r="B151" s="2">
-        <v>8173.67</v>
+      <c r="B151">
+        <v>8173670000000</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A152" s="1">
         <v>30864</v>
       </c>
-      <c r="B152" s="2">
-        <v>8252.4650000000001</v>
+      <c r="B152">
+        <v>8252465000000</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A153" s="1">
         <v>30956</v>
       </c>
-      <c r="B153" s="2">
-        <v>8320.1990000000005</v>
+      <c r="B153">
+        <v>8320199000000.001</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A154" s="1">
         <v>31048</v>
       </c>
-      <c r="B154" s="2">
-        <v>8400.82</v>
+      <c r="B154">
+        <v>8400820000000</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A155" s="1">
         <v>31138</v>
       </c>
-      <c r="B155" s="2">
-        <v>8474.7870000000003</v>
+      <c r="B155">
+        <v>8474787000000</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A156" s="1">
         <v>31229</v>
       </c>
-      <c r="B156" s="2">
-        <v>8604.2199999999993</v>
+      <c r="B156">
+        <v>8604219999999.999</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A157" s="1">
         <v>31321</v>
       </c>
-      <c r="B157" s="2">
-        <v>8668.1880000000001</v>
+      <c r="B157">
+        <v>8668188000000</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A158" s="1">
         <v>31413</v>
       </c>
-      <c r="B158" s="2">
-        <v>8749.1270000000004</v>
+      <c r="B158">
+        <v>8749127000000</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A159" s="1">
         <v>31503</v>
       </c>
-      <c r="B159" s="2">
-        <v>8788.5239999999994</v>
+      <c r="B159">
+        <v>8788523999999.999</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A160" s="1">
         <v>31594</v>
       </c>
-      <c r="B160" s="2">
-        <v>8872.6010000000006</v>
+      <c r="B160">
+        <v>8872601000000</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A161" s="1">
         <v>31686</v>
       </c>
-      <c r="B161" s="2">
-        <v>8920.1929999999993</v>
+      <c r="B161">
+        <v>8920193000000</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A162" s="1">
         <v>31778</v>
       </c>
-      <c r="B162" s="2">
-        <v>8986.3670000000002</v>
+      <c r="B162">
+        <v>8986367000000</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A163" s="1">
         <v>31868</v>
       </c>
-      <c r="B163" s="2">
-        <v>9083.2559999999994</v>
+      <c r="B163">
+        <v>9083256000000</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A164" s="1">
         <v>31959</v>
       </c>
-      <c r="B164" s="2">
-        <v>9162.0239999999994</v>
+      <c r="B164">
+        <v>9162024000000</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A165" s="1">
         <v>32051</v>
       </c>
-      <c r="B165" s="2">
-        <v>9319.3320000000003</v>
+      <c r="B165">
+        <v>9319332000000</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A166" s="1">
         <v>32143</v>
       </c>
-      <c r="B166" s="2">
-        <v>9367.5020000000004</v>
+      <c r="B166">
+        <v>9367502000000</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A167" s="1">
         <v>32234</v>
       </c>
-      <c r="B167" s="2">
-        <v>9490.5939999999991</v>
+      <c r="B167">
+        <v>9490594000000</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A168" s="1">
         <v>32325</v>
       </c>
-      <c r="B168" s="2">
-        <v>9546.2060000000001</v>
+      <c r="B168">
+        <v>9546206000000</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A169" s="1">
         <v>32417</v>
       </c>
-      <c r="B169" s="2">
-        <v>9673.4050000000007</v>
+      <c r="B169">
+        <v>9673405000000</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A170" s="1">
         <v>32509</v>
       </c>
-      <c r="B170" s="2">
-        <v>9771.7250000000004</v>
+      <c r="B170">
+        <v>9771725000000</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A171" s="1">
         <v>32599</v>
       </c>
-      <c r="B171" s="2">
-        <v>9846.2929999999997</v>
+      <c r="B171">
+        <v>9846293000000</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A172" s="1">
         <v>32690</v>
       </c>
-      <c r="B172" s="2">
-        <v>9919.2279999999992</v>
+      <c r="B172">
+        <v>9919228000000</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A173" s="1">
         <v>32782</v>
       </c>
-      <c r="B173" s="2">
-        <v>9938.7669999999998</v>
+      <c r="B173">
+        <v>9938767000000</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A174" s="1">
         <v>32874</v>
       </c>
-      <c r="B174" s="2">
-        <v>10047.386</v>
+      <c r="B174">
+        <v>10047386000000</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A175" s="1">
         <v>32964</v>
       </c>
-      <c r="B175" s="2">
-        <v>10083.855</v>
+      <c r="B175">
+        <v>10083855000000</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A176" s="1">
         <v>33055</v>
       </c>
-      <c r="B176" s="2">
-        <v>10090.569</v>
+      <c r="B176">
+        <v>10090569000000</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A177" s="1">
         <v>33147</v>
       </c>
-      <c r="B177" s="2">
-        <v>9998.7039999999997</v>
+      <c r="B177">
+        <v>9998704000000</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A178" s="1">
         <v>33239</v>
       </c>
-      <c r="B178" s="2">
-        <v>9951.9159999999993</v>
+      <c r="B178">
+        <v>9951916000000</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A179" s="1">
         <v>33329</v>
       </c>
-      <c r="B179" s="2">
-        <v>10029.51</v>
+      <c r="B179">
+        <v>10029510000000</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A180" s="1">
         <v>33420</v>
       </c>
-      <c r="B180" s="2">
-        <v>10080.195</v>
+      <c r="B180">
+        <v>10080195000000</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A181" s="1">
         <v>33512</v>
       </c>
-      <c r="B181" s="2">
-        <v>10115.329</v>
+      <c r="B181">
+        <v>10115329000000</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A182" s="1">
         <v>33604</v>
       </c>
-      <c r="B182" s="2">
-        <v>10236.434999999999</v>
+      <c r="B182">
+        <v>10236435000000</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A183" s="1">
         <v>33695</v>
       </c>
-      <c r="B183" s="2">
-        <v>10347.429</v>
+      <c r="B183">
+        <v>10347429000000</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A184" s="1">
         <v>33786</v>
       </c>
-      <c r="B184" s="2">
-        <v>10449.673000000001</v>
+      <c r="B184">
+        <v>10449673000000</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A185" s="1">
         <v>33878</v>
       </c>
-      <c r="B185" s="2">
-        <v>10558.647999999999</v>
+      <c r="B185">
+        <v>10558648000000</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A186" s="1">
         <v>33970</v>
       </c>
-      <c r="B186" s="2">
-        <v>10576.275</v>
+      <c r="B186">
+        <v>10576275000000</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A187" s="1">
         <v>34060</v>
       </c>
-      <c r="B187" s="2">
-        <v>10637.847</v>
+      <c r="B187">
+        <v>10637847000000</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A188" s="1">
         <v>34151</v>
       </c>
-      <c r="B188" s="2">
-        <v>10688.606</v>
+      <c r="B188">
+        <v>10688606000000</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A189" s="1">
         <v>34243</v>
       </c>
-      <c r="B189" s="2">
-        <v>10833.986999999999</v>
+      <c r="B189">
+        <v>10833987000000</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A190" s="1">
         <v>34335</v>
       </c>
-      <c r="B190" s="2">
-        <v>10939.116</v>
+      <c r="B190">
+        <v>10939116000000</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A191" s="1">
         <v>34425</v>
       </c>
-      <c r="B191" s="2">
-        <v>11087.361000000001</v>
+      <c r="B191">
+        <v>11087361000000</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A192" s="1">
         <v>34516</v>
       </c>
-      <c r="B192" s="2">
-        <v>11152.175999999999</v>
+      <c r="B192">
+        <v>11152176000000</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A193" s="1">
         <v>34608</v>
       </c>
-      <c r="B193" s="2">
-        <v>11279.932000000001</v>
+      <c r="B193">
+        <v>11279932000000</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A194" s="1">
         <v>34700</v>
       </c>
-      <c r="B194" s="2">
-        <v>11319.950999999999</v>
+      <c r="B194">
+        <v>11319951000000</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A195" s="1">
         <v>34790</v>
       </c>
-      <c r="B195" s="2">
-        <v>11353.721</v>
+      <c r="B195">
+        <v>11353721000000</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A196" s="1">
         <v>34881</v>
       </c>
-      <c r="B196" s="2">
-        <v>11450.31</v>
+      <c r="B196">
+        <v>11450310000000</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A197" s="1">
         <v>34973</v>
       </c>
-      <c r="B197" s="2">
-        <v>11528.066999999999</v>
+      <c r="B197">
+        <v>11528067000000</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A198" s="1">
         <v>35065</v>
       </c>
-      <c r="B198" s="2">
-        <v>11614.418</v>
+      <c r="B198">
+        <v>11614418000000</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A199" s="1">
         <v>35156</v>
       </c>
-      <c r="B199" s="2">
-        <v>11808.14</v>
+      <c r="B199">
+        <v>11808140000000</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A200" s="1">
         <v>35247</v>
       </c>
-      <c r="B200" s="2">
-        <v>11914.063</v>
+      <c r="B200">
+        <v>11914063000000</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A201" s="1">
         <v>35339</v>
       </c>
-      <c r="B201" s="2">
-        <v>12037.775</v>
+      <c r="B201">
+        <v>12037775000000</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A202" s="1">
         <v>35431</v>
       </c>
-      <c r="B202" s="2">
-        <v>12115.472</v>
+      <c r="B202">
+        <v>12115472000000</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A203" s="1">
         <v>35521</v>
       </c>
-      <c r="B203" s="2">
-        <v>12317.221</v>
+      <c r="B203">
+        <v>12317221000000</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A204" s="1">
         <v>35612</v>
       </c>
-      <c r="B204" s="2">
-        <v>12471.01</v>
+      <c r="B204">
+        <v>12471010000000</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A205" s="1">
         <v>35704</v>
       </c>
-      <c r="B205" s="2">
-        <v>12577.495000000001</v>
+      <c r="B205">
+        <v>12577495000000</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A206" s="1">
         <v>35796</v>
       </c>
-      <c r="B206" s="2">
-        <v>12703.742</v>
+      <c r="B206">
+        <v>12703742000000</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A207" s="1">
         <v>35886</v>
       </c>
-      <c r="B207" s="2">
-        <v>12821.339</v>
+      <c r="B207">
+        <v>12821339000000</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A208" s="1">
         <v>35977</v>
       </c>
-      <c r="B208" s="2">
-        <v>12982.752</v>
+      <c r="B208">
+        <v>12982752000000</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A209" s="1">
         <v>36069</v>
       </c>
-      <c r="B209" s="2">
-        <v>13191.67</v>
+      <c r="B209">
+        <v>13191670000000</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A210" s="1">
         <v>36161</v>
       </c>
-      <c r="B210" s="2">
-        <v>13315.597</v>
+      <c r="B210">
+        <v>13315597000000</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A211" s="1">
         <v>36251</v>
       </c>
-      <c r="B211" s="2">
-        <v>13426.748</v>
+      <c r="B211">
+        <v>13426748000000</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A212" s="1">
         <v>36342</v>
       </c>
-      <c r="B212" s="2">
-        <v>13604.771000000001</v>
+      <c r="B212">
+        <v>13604771000000</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A213" s="1">
         <v>36434</v>
       </c>
-      <c r="B213" s="2">
-        <v>13827.98</v>
+      <c r="B213">
+        <v>13827980000000</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A214" s="1">
         <v>36526</v>
       </c>
-      <c r="B214" s="2">
-        <v>13878.147000000001</v>
+      <c r="B214">
+        <v>13878147000000</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A215" s="1">
         <v>36617</v>
       </c>
-      <c r="B215" s="2">
-        <v>14130.907999999999</v>
+      <c r="B215">
+        <v>14130908000000</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A216" s="1">
         <v>36708</v>
       </c>
-      <c r="B216" s="2">
-        <v>14145.312</v>
+      <c r="B216">
+        <v>14145312000000</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A217" s="1">
         <v>36800</v>
       </c>
-      <c r="B217" s="2">
-        <v>14229.764999999999</v>
+      <c r="B217">
+        <v>14229765000000</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A218" s="1">
         <v>36892</v>
       </c>
-      <c r="B218" s="2">
-        <v>14183.12</v>
+      <c r="B218">
+        <v>14183120000000</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A219" s="1">
         <v>36982</v>
       </c>
-      <c r="B219" s="2">
-        <v>14271.694</v>
+      <c r="B219">
+        <v>14271694000000</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A220" s="1">
         <v>37073</v>
       </c>
-      <c r="B220" s="2">
-        <v>14214.516</v>
+      <c r="B220">
+        <v>14214516000000</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A221" s="1">
         <v>37165</v>
       </c>
-      <c r="B221" s="2">
-        <v>14253.574000000001</v>
+      <c r="B221">
+        <v>14253574000000</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A222" s="1">
         <v>37257</v>
       </c>
-      <c r="B222" s="2">
-        <v>14372.785</v>
+      <c r="B222">
+        <v>14372785000000</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A223" s="1">
         <v>37347</v>
       </c>
-      <c r="B223" s="2">
-        <v>14460.848</v>
+      <c r="B223">
+        <v>14460848000000</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A224" s="1">
         <v>37438</v>
       </c>
-      <c r="B224" s="2">
-        <v>14519.633</v>
+      <c r="B224">
+        <v>14519633000000</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A225" s="1">
         <v>37530</v>
       </c>
-      <c r="B225" s="2">
-        <v>14537.58</v>
+      <c r="B225">
+        <v>14537580000000</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A226" s="1">
         <v>37622</v>
       </c>
-      <c r="B226" s="2">
-        <v>14614.141</v>
+      <c r="B226">
+        <v>14614141000000</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A227" s="1">
         <v>37712</v>
       </c>
-      <c r="B227" s="2">
-        <v>14743.566999999999</v>
+      <c r="B227">
+        <v>14743567000000</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A228" s="1">
         <v>37803</v>
       </c>
-      <c r="B228" s="2">
-        <v>14988.781999999999</v>
+      <c r="B228">
+        <v>14988782000000</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A229" s="1">
         <v>37895</v>
       </c>
-      <c r="B229" s="2">
-        <v>15162.76</v>
+      <c r="B229">
+        <v>15162760000000</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A230" s="1">
         <v>37987</v>
       </c>
-      <c r="B230" s="2">
-        <v>15248.68</v>
+      <c r="B230">
+        <v>15248680000000</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A231" s="1">
         <v>38078</v>
       </c>
-      <c r="B231" s="2">
-        <v>15366.85</v>
+      <c r="B231">
+        <v>15366850000000</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A232" s="1">
         <v>38169</v>
       </c>
-      <c r="B232" s="2">
-        <v>15512.619000000001</v>
+      <c r="B232">
+        <v>15512619000000</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A233" s="1">
         <v>38261</v>
       </c>
-      <c r="B233" s="2">
-        <v>15670.88</v>
+      <c r="B233">
+        <v>15670880000000</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A234" s="1">
         <v>38353</v>
       </c>
-      <c r="B234" s="2">
-        <v>15844.727000000001</v>
+      <c r="B234">
+        <v>15844727000000</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A235" s="1">
         <v>38443</v>
       </c>
-      <c r="B235" s="2">
-        <v>15922.781999999999</v>
+      <c r="B235">
+        <v>15922782000000</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A236" s="1">
         <v>38534</v>
       </c>
-      <c r="B236" s="2">
-        <v>16047.587</v>
+      <c r="B236">
+        <v>16047587000000</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A237" s="1">
         <v>38626</v>
       </c>
-      <c r="B237" s="2">
-        <v>16136.734</v>
+      <c r="B237">
+        <v>16136734000000</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A238" s="1">
         <v>38718</v>
       </c>
-      <c r="B238" s="2">
-        <v>16353.834999999999</v>
+      <c r="B238">
+        <v>16353835000000</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A239" s="1">
         <v>38808</v>
       </c>
-      <c r="B239" s="2">
-        <v>16396.151000000002</v>
+      <c r="B239">
+        <v>16396151000000.002</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A240" s="1">
         <v>38899</v>
       </c>
-      <c r="B240" s="2">
-        <v>16420.738000000001</v>
+      <c r="B240">
+        <v>16420738000000.002</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A241" s="1">
         <v>38991</v>
       </c>
-      <c r="B241" s="2">
-        <v>16561.866000000002</v>
+      <c r="B241">
+        <v>16561866000000.002</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A242" s="1">
         <v>39083</v>
       </c>
-      <c r="B242" s="2">
-        <v>16611.689999999999</v>
+      <c r="B242">
+        <v>16611689999999.998</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A243" s="1">
         <v>39173</v>
       </c>
-      <c r="B243" s="2">
-        <v>16713.313999999998</v>
+      <c r="B243">
+        <v>16713313999999.998</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A244" s="1">
         <v>39264</v>
       </c>
-      <c r="B244" s="2">
-        <v>16809.587</v>
+      <c r="B244">
+        <v>16809587000000</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A245" s="1">
         <v>39356</v>
       </c>
-      <c r="B245" s="2">
-        <v>16915.190999999999</v>
+      <c r="B245">
+        <v>16915190999999.998</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A246" s="1">
         <v>39448</v>
       </c>
-      <c r="B246" s="2">
-        <v>16843.003000000001</v>
+      <c r="B246">
+        <v>16843003000000</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A247" s="1">
         <v>39539</v>
       </c>
-      <c r="B247" s="2">
-        <v>16943.291000000001</v>
+      <c r="B247">
+        <v>16943291000000.002</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A248" s="1">
         <v>39630</v>
       </c>
-      <c r="B248" s="2">
-        <v>16854.294999999998</v>
+      <c r="B248">
+        <v>16854294999999.998</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A249" s="1">
         <v>39722</v>
       </c>
-      <c r="B249" s="2">
-        <v>16485.349999999999</v>
+      <c r="B249">
+        <v>16485349999999.998</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A250" s="1">
         <v>39814</v>
       </c>
-      <c r="B250" s="2">
-        <v>16298.262000000001</v>
+      <c r="B250">
+        <v>16298262000000</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A251" s="1">
         <v>39904</v>
       </c>
-      <c r="B251" s="2">
-        <v>16269.145</v>
+      <c r="B251">
+        <v>16269145000000</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A252" s="1">
         <v>39995</v>
       </c>
-      <c r="B252" s="2">
-        <v>16326.281000000001</v>
+      <c r="B252">
+        <v>16326281000000</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A253" s="1">
         <v>40087</v>
       </c>
-      <c r="B253" s="2">
-        <v>16502.754000000001</v>
+      <c r="B253">
+        <v>16502754000000</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A254" s="1">
         <v>40179</v>
       </c>
-      <c r="B254" s="2">
-        <v>16582.71</v>
+      <c r="B254">
+        <v>16582710000000</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A255" s="1">
         <v>40269</v>
       </c>
-      <c r="B255" s="2">
-        <v>16743.162</v>
+      <c r="B255">
+        <v>16743162000000</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A256" s="1">
         <v>40360</v>
       </c>
-      <c r="B256" s="2">
-        <v>16872.266</v>
+      <c r="B256">
+        <v>16872266000000</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A257" s="1">
         <v>40452</v>
       </c>
-      <c r="B257" s="2">
-        <v>16960.864000000001</v>
+      <c r="B257">
+        <v>16960864000000.002</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A258" s="1">
         <v>40544</v>
       </c>
-      <c r="B258" s="2">
-        <v>16920.632000000001</v>
+      <c r="B258">
+        <v>16920632000000.002</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A259" s="1">
         <v>40634</v>
       </c>
-      <c r="B259" s="2">
-        <v>17035.114000000001</v>
+      <c r="B259">
+        <v>17035114000000.002</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A260" s="1">
         <v>40725</v>
       </c>
-      <c r="B260" s="2">
-        <v>17031.312999999998</v>
+      <c r="B260">
+        <v>17031312999999.998</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A261" s="1">
         <v>40817</v>
       </c>
-      <c r="B261" s="2">
-        <v>17222.582999999999</v>
+      <c r="B261">
+        <v>17222582999999.998</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A262" s="1">
         <v>40909</v>
       </c>
-      <c r="B262" s="2">
-        <v>17367.009999999998</v>
+      <c r="B262">
+        <v>17367009999999.998</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A263" s="1">
         <v>41000</v>
       </c>
-      <c r="B263" s="2">
-        <v>17444.525000000001</v>
+      <c r="B263">
+        <v>17444525000000.002</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A264" s="1">
         <v>41091</v>
       </c>
-      <c r="B264" s="2">
-        <v>17469.650000000001</v>
+      <c r="B264">
+        <v>17469650000000.002</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A265" s="1">
         <v>41183</v>
       </c>
-      <c r="B265" s="2">
-        <v>17489.851999999999</v>
+      <c r="B265">
+        <v>17489851999999.998</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A266" s="1">
         <v>41275</v>
       </c>
-      <c r="B266" s="2">
-        <v>17662.400000000001</v>
+      <c r="B266">
+        <v>17662400000000</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A267" s="1">
         <v>41365</v>
       </c>
-      <c r="B267" s="2">
-        <v>17709.670999999998</v>
+      <c r="B267">
+        <v>17709671000000</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A268" s="1">
         <v>41456</v>
       </c>
-      <c r="B268" s="2">
-        <v>17860.45</v>
+      <c r="B268">
+        <v>17860450000000</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A269" s="1">
         <v>41548</v>
       </c>
-      <c r="B269" s="2">
-        <v>18016.147000000001</v>
+      <c r="B269">
+        <v>18016147000000</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A270" s="1">
         <v>41640</v>
       </c>
-      <c r="B270" s="2">
-        <v>17953.973999999998</v>
+      <c r="B270">
+        <v>17953974000000</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A271" s="1">
         <v>41730</v>
       </c>
-      <c r="B271" s="2">
-        <v>18185.911</v>
+      <c r="B271">
+        <v>18185911000000</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A272" s="1">
         <v>41821</v>
       </c>
-      <c r="B272" s="2">
-        <v>18406.940999999999</v>
+      <c r="B272">
+        <v>18406941000000</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A273" s="1">
         <v>41913</v>
       </c>
-      <c r="B273" s="2">
-        <v>18500.030999999999</v>
+      <c r="B273">
+        <v>18500031000000</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A274" s="1">
         <v>42005</v>
       </c>
-      <c r="B274" s="2">
-        <v>18666.620999999999</v>
+      <c r="B274">
+        <v>18666621000000</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A275" s="1">
         <v>42095</v>
       </c>
-      <c r="B275" s="2">
-        <v>18782.242999999999</v>
+      <c r="B275">
+        <v>18782243000000</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A276" s="1">
         <v>42186</v>
       </c>
-      <c r="B276" s="2">
-        <v>18857.418000000001</v>
+      <c r="B276">
+        <v>18857418000000</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A277" s="1">
         <v>42278</v>
       </c>
-      <c r="B277" s="2">
-        <v>18892.205999999998</v>
+      <c r="B277">
+        <v>18892206000000</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A278" s="1">
         <v>42370</v>
       </c>
-      <c r="B278" s="2">
-        <v>19001.689999999999</v>
+      <c r="B278">
+        <v>19001690000000</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A279" s="1">
         <v>42461</v>
       </c>
-      <c r="B279" s="2">
-        <v>19062.708999999999</v>
+      <c r="B279">
+        <v>19062709000000</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A280" s="1">
         <v>42552</v>
       </c>
-      <c r="B280" s="2">
-        <v>19197.937999999998</v>
+      <c r="B280">
+        <v>19197938000000</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A281" s="1">
         <v>42644</v>
       </c>
-      <c r="B281" s="2">
-        <v>19304.351999999999</v>
+      <c r="B281">
+        <v>19304352000000</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A282" s="1">
         <v>42736</v>
       </c>
-      <c r="B282" s="2">
-        <v>19398.343000000001</v>
+      <c r="B282">
+        <v>19398343000000</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A283" s="1">
         <v>42826</v>
       </c>
-      <c r="B283" s="2">
-        <v>19506.949000000001</v>
+      <c r="B283">
+        <v>19506949000000</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A284" s="1">
         <v>42917</v>
       </c>
-      <c r="B284" s="2">
-        <v>19660.766</v>
+      <c r="B284">
+        <v>19660766000000</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A285" s="1">
         <v>43009</v>
       </c>
-      <c r="B285" s="2">
-        <v>19882.351999999999</v>
+      <c r="B285">
+        <v>19882352000000</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A286" s="1">
         <v>43101</v>
       </c>
-      <c r="B286" s="2">
-        <v>20044.077000000001</v>
+      <c r="B286">
+        <v>20044077000000</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A287" s="1">
         <v>43191</v>
       </c>
-      <c r="B287" s="2">
-        <v>20150.475999999999</v>
+      <c r="B287">
+        <v>20150476000000</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A288" s="1">
         <v>43282</v>
       </c>
-      <c r="B288" s="2">
-        <v>20276.153999999999</v>
+      <c r="B288">
+        <v>20276154000000</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A289" s="1">
         <v>43374</v>
       </c>
-      <c r="B289" s="2">
-        <v>20304.874</v>
+      <c r="B289">
+        <v>20304874000000</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A290" s="1">
         <v>43466</v>
       </c>
-      <c r="B290" s="2">
-        <v>20415.150000000001</v>
+      <c r="B290">
+        <v>20415150000000</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A291" s="1">
         <v>43556</v>
       </c>
-      <c r="B291" s="2">
-        <v>20584.527999999998</v>
+      <c r="B291">
+        <v>20584528000000</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A292" s="1">
         <v>43647</v>
       </c>
-      <c r="B292" s="2">
-        <v>20817.580999999998</v>
+      <c r="B292">
+        <v>20817581000000</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A293" s="1">
         <v>43739</v>
       </c>
-      <c r="B293" s="2">
-        <v>20951.088</v>
+      <c r="B293">
+        <v>20951088000000</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A294" s="1">
         <v>43831</v>
       </c>
-      <c r="B294" s="2">
-        <v>20665.553</v>
+      <c r="B294">
+        <v>20665553000000</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A295" s="1">
         <v>43922</v>
       </c>
-      <c r="B295" s="2">
-        <v>19034.830000000002</v>
+      <c r="B295">
+        <v>19034830000000</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A296" s="1">
         <v>44013</v>
       </c>
-      <c r="B296" s="2">
-        <v>20511.785</v>
+      <c r="B296">
+        <v>20511785000000</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A297" s="1">
         <v>44105</v>
       </c>
-      <c r="B297" s="2">
-        <v>20724.128000000001</v>
+      <c r="B297">
+        <v>20724128000000</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A298" s="1">
         <v>44197</v>
       </c>
-      <c r="B298" s="2">
-        <v>20990.541000000001</v>
+      <c r="B298">
+        <v>20990541000000</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A299" s="1">
         <v>44287</v>
       </c>
-      <c r="B299" s="2">
-        <v>21309.544000000002</v>
+      <c r="B299">
+        <v>21309544000000</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A300" s="1">
         <v>44378</v>
       </c>
-      <c r="B300" s="2">
-        <v>21483.082999999999</v>
+      <c r="B300">
+        <v>21483083000000</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A301" s="1">
         <v>44470</v>
       </c>
-      <c r="B301" s="2">
-        <v>21847.601999999999</v>
+      <c r="B301">
+        <v>21847602000000</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A302" s="1">
         <v>44562</v>
       </c>
-      <c r="B302" s="2">
-        <v>21738.870999999999</v>
+      <c r="B302">
+        <v>21738871000000</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A303" s="1">
         <v>44652</v>
       </c>
-      <c r="B303" s="2">
-        <v>21708.16</v>
+      <c r="B303">
+        <v>21708160000000</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A304" s="1">
         <v>44743</v>
       </c>
-      <c r="B304" s="2">
-        <v>21851.133999999998</v>
+      <c r="B304">
+        <v>21851134000000</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A305" s="1">
         <v>44835</v>
       </c>
-      <c r="B305" s="2">
-        <v>21989.981</v>
+      <c r="B305">
+        <v>21989981000000</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A306" s="1">
         <v>44927</v>
       </c>
-      <c r="B306" s="2">
-        <v>22112.329000000002</v>
+      <c r="B306">
+        <v>22112329000000</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A307" s="1">
         <v>45017</v>
       </c>
-      <c r="B307" s="2">
-        <v>22225.35</v>
+      <c r="B307">
+        <v>22225350000000</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A308" s="1">
         <v>45108</v>
       </c>
-      <c r="B308" s="2">
-        <v>22490.691999999999</v>
+      <c r="B308">
+        <v>22490692000000</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A309" s="1">
         <v>45200</v>
       </c>
-      <c r="B309" s="2">
-        <v>22668.986000000001</v>
+      <c r="B309">
+        <v>22679255000000</v>
       </c>
     </row>
   </sheetData>
